--- a/From Excel to Python - Part 2/monthly_sales_report_updated_1.xlsx
+++ b/From Excel to Python - Part 2/monthly_sales_report_updated_1.xlsx
@@ -669,7 +669,7 @@
         <v>679</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>821</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -716,7 +716,7 @@
         <v>5793</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5237</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>3561</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5071</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>256</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>10289</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>11319</v>
       </c>
       <c r="K12">
         <v>0</v>
